--- a/sperimentazione nei propulsori/misureCD.xlsx
+++ b/sperimentazione nei propulsori/misureCD.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repositoriesgithub\sperimentazione-propulsori\sperimentazione nei propulsori\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A911843-DB2A-4683-A995-BA4BCAE0F7CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501BC683-954F-41BB-AFF5-4AC5AEB211B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="Errori" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>MIS</t>
   </si>
@@ -97,11 +98,118 @@
   <si>
     <t>kg/m^3</t>
   </si>
+  <si>
+    <t>Pf [Pa]</t>
+  </si>
+  <si>
+    <t>rho_f [kg/m^3]</t>
+  </si>
+  <si>
+    <t>q_m [kg/s]</t>
+  </si>
+  <si>
+    <t>D [m]</t>
+  </si>
+  <si>
+    <t>A [m^2]</t>
+  </si>
+  <si>
+    <t>V_teo [m/s]</t>
+  </si>
+  <si>
+    <t>q_teo [kg/s]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD </t>
+  </si>
+  <si>
+    <t>Dp [Pa]</t>
+  </si>
+  <si>
+    <t>Tf [K]</t>
+  </si>
+  <si>
+    <t>fattore conv</t>
+  </si>
+  <si>
+    <t>V_real [m/s]</t>
+  </si>
+  <si>
+    <t>Input Sutherland</t>
+  </si>
+  <si>
+    <t>mu=mu_ref*(T/T_ref)^1.5</t>
+  </si>
+  <si>
+    <t>T_Ref [K]</t>
+  </si>
+  <si>
+    <t>mu_ref [Pa*s]</t>
+  </si>
+  <si>
+    <t>mu [Pa*s]</t>
+  </si>
+  <si>
+    <t>Re (rhoVD/mu)</t>
+  </si>
+  <si>
+    <t>Ma</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>Note critiche</t>
+  </si>
+  <si>
+    <t>CD errato nei primi punti di misura</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Per valori bassi di qmn errore significativo</t>
+  </si>
+  <si>
+    <t>Idem per le altre grandezze misurate</t>
+  </si>
+  <si>
+    <t>Leggero decremento con Re e Ma, legato al trend delle grandezze misurate</t>
+  </si>
+  <si>
+    <t>Ma massimo limitato, quindi flusso strettamente in regime incomprimibile</t>
+  </si>
+  <si>
+    <t>Effetto limitato del valore di Pamb (variazione meteorologica poco significativa)</t>
+  </si>
+  <si>
+    <t>La misura di Tf non porta variazioni significative di CD</t>
+  </si>
+  <si>
+    <t>Nel campo di valori accettabili il flusso è a Re&gt;4000, quindi in regime turbolento</t>
+  </si>
+  <si>
+    <t>Errori statistici</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Dev std</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="6">
+    <numFmt numFmtId="164" formatCode="0.000E+00"/>
+    <numFmt numFmtId="166" formatCode="0.00000E+00"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="174" formatCode="0.0"/>
+    <numFmt numFmtId="175" formatCode="0.0E+00"/>
+    <numFmt numFmtId="176" formatCode="0E+00"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -111,12 +219,54 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -131,9 +281,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="174" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -149,6 +318,4582 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Variazione</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> CD con le 3 grandezze misurate (SU REPORT SINGOLI GRAFICI)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>q_MN [Nl/min]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio1!$L$2:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.8266382213624279</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2369879596942546</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97084363365448856</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96543642217646275</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94134696730427569</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92101373473417136</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.89341040961414475</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.87286378868594627</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.87074242822983861</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.87459020776513752</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.87170548043949148</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.87394878921446906</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio1!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1FCD-4C76-BE84-847363922323}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dp [mbar]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio1!$L$2:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.8266382213624279</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2369879596942546</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97084363365448856</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96543642217646275</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94134696730427569</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92101373473417136</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.89341040961414475</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.87286378868594627</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.87074242822983861</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.87459020776513752</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.87170548043949148</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.87394878921446906</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio1!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-1FCD-4C76-BE84-847363922323}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tf [°C]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio1!$L$2:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.8266382213624279</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2369879596942546</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97084363365448856</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96543642217646275</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94134696730427569</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92101373473417136</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.89341040961414475</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.87286378868594627</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.87074242822983861</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.87459020776513752</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.87170548043949148</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.87394878921446906</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio1!$E$2:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>32.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-1FCD-4C76-BE84-847363922323}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="289904352"/>
+        <c:axId val="289897632"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="289904352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>CD</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="289897632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="289897632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Grandezza</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="289904352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CD</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> - Re</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Re (rhoVD/mu)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio1!$O$2:$O$13</c:f>
+              <c:numCache>
+                <c:formatCode>0E+00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3229.2413606124801</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4151.8817493589022</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4615.4709175293483</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5079.515927094043</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5544.0173387901077</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6471.2046153067777</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6933.4335164001186</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7399.3047037945998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7861.761247781762</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8328.3187283145817</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8791.0031021098366</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9253.6874759050916</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio1!$L$2:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.8266382213624279</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2369879596942546</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97084363365448856</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96543642217646275</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94134696730427569</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92101373473417136</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.89341040961414475</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.87286378868594627</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.87074242822983861</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.87459020776513752</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.87170548043949148</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.87394878921446906</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-70E9-47F9-8F18-8DCF54B26543}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="418623968"/>
+        <c:axId val="418634048"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="418623968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Re</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="418634048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="418634048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>CD</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="418623968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ma</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio1!$P$2:$P$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0E+00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4.8661067646172014E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.248352582327122E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9291002778376451E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.6147268368520205E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.2965800714862425E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.6557996207875474E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10328180687438716</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.10995428438290004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.11665442122756624</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.12332669783695889</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.12996162081156254</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.13658784902921942</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio1!$L$2:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.8266382213624279</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2369879596942546</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97084363365448856</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96543642217646275</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94134696730427569</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92101373473417136</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.89341040961414475</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.87286378868594627</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.87074242822983861</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.87459020776513752</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.87170548043949148</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.87394878921446906</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FDA3-4A15-AED2-30A0753764FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="353378688"/>
+        <c:axId val="353380128"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="353378688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Ma</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="353380128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="353380128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>CD</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="353378688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CD-T </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CD </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio1!$E$2:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>32.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio1!$L$2:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.8266382213624279</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2369879596942546</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97084363365448856</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96543642217646275</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94134696730427569</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92101373473417136</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.89341040961414475</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.87286378868594627</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.87074242822983861</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.87459020776513752</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.87170548043949148</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.87394878921446906</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8DF8-4FD5-A1A6-9F04AD95980A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="348958592"/>
+        <c:axId val="348964352"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="348958592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="348964352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="348964352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="348958592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>90486</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D93503FE-1EAB-2EC7-2921-0CC10D955294}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF8D0B46-DB80-6276-F501-AD233AC6BCFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58863CD7-0994-1FAA-B2EB-42E242B603A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Grafico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2EBBE58-2CAC-1DB8-4E37-73FC24C6F3AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -414,205 +5159,825 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:S44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="6">
         <v>7</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="7">
         <v>0.5</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="7">
+        <f>C2*100</f>
+        <v>50</v>
+      </c>
+      <c r="E2" s="8">
         <v>32.1</v>
       </c>
+      <c r="F2" s="8">
+        <f>E2+B$22</f>
+        <v>305.10000000000002</v>
+      </c>
+      <c r="G2" s="7">
+        <f>$B$18+D2</f>
+        <v>100650</v>
+      </c>
+      <c r="H2" s="10">
+        <f>G2/($B$17*F2)</f>
+        <v>0.63486521768851811</v>
+      </c>
+      <c r="I2" s="13">
+        <f>B2*$B$23*B$24</f>
+        <v>8.3331791294264236E-5</v>
+      </c>
+      <c r="J2" s="15">
+        <f>SQRT(2*D2/H2)</f>
+        <v>12.550448124951906</v>
+      </c>
+      <c r="K2" s="13">
+        <f>H2*J2*$B$33</f>
+        <v>4.5620304184870204E-5</v>
+      </c>
+      <c r="L2" s="20">
+        <f>I2/K2</f>
+        <v>1.8266382213624279</v>
+      </c>
+      <c r="M2" s="14">
+        <f>I2/(H2*B$33)</f>
+        <v>22.925128240263568</v>
+      </c>
+      <c r="N2" s="2">
+        <f>B$39*(F2/B$40)^1.5</f>
+        <v>1.2169046919950711E-5</v>
+      </c>
+      <c r="O2" s="18">
+        <f>H2*M2*B$34/N2</f>
+        <v>3229.2413606124801</v>
+      </c>
+      <c r="P2" s="17">
+        <f>M2/(SQRT(B$44*B$17*F2))</f>
+        <v>4.8661067646172014E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="6">
         <v>9</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="7">
         <v>1.8</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="7">
+        <f t="shared" ref="D3:D13" si="0">C3*100</f>
+        <v>180</v>
+      </c>
+      <c r="E3" s="8">
         <v>32.1</v>
       </c>
+      <c r="F3" s="8">
+        <f t="shared" ref="F3:F13" si="1">E3+B$22</f>
+        <v>305.10000000000002</v>
+      </c>
+      <c r="G3" s="7">
+        <f t="shared" ref="G3:G13" si="2">$B$18+D3</f>
+        <v>100780</v>
+      </c>
+      <c r="H3" s="10">
+        <f t="shared" ref="H3:H13" si="3">G3/($B$17*F3)</f>
+        <v>0.63568521250520471</v>
+      </c>
+      <c r="I3" s="13">
+        <f t="shared" ref="I3:I13" si="4">B3*$B$23*B$24</f>
+        <v>1.0714087452119687E-4</v>
+      </c>
+      <c r="J3" s="15">
+        <f t="shared" ref="J3:J13" si="5">SQRT(2*D3/H3)</f>
+        <v>23.797437558111355</v>
+      </c>
+      <c r="K3" s="13">
+        <f>H3*J3*$B$33</f>
+        <v>8.6614322865097892E-5</v>
+      </c>
+      <c r="L3" s="20">
+        <f t="shared" ref="L3:L13" si="6">I3/K3</f>
+        <v>1.2369879596942546</v>
+      </c>
+      <c r="M3" s="14">
+        <f t="shared" ref="M3:M13" si="7">I3/(H3*B$33)</f>
+        <v>29.43714373095959</v>
+      </c>
+      <c r="N3" s="2">
+        <f t="shared" ref="N3:N13" si="8">B$39*(F3/B$40)^1.5</f>
+        <v>1.2169046919950711E-5</v>
+      </c>
+      <c r="O3" s="18">
+        <f t="shared" ref="O3:O13" si="9">H3*M3*B$34/N3</f>
+        <v>4151.8817493589022</v>
+      </c>
+      <c r="P3" s="17">
+        <f t="shared" ref="P3:P13" si="10">M3/(SQRT(B$44*B$17*F3))</f>
+        <v>6.248352582327122E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="6">
         <v>10</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="7">
         <v>3.6</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="7">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="E4" s="8">
         <v>32</v>
       </c>
+      <c r="F4" s="8">
+        <f t="shared" si="1"/>
+        <v>305</v>
+      </c>
+      <c r="G4" s="7">
+        <f t="shared" si="2"/>
+        <v>100960</v>
+      </c>
+      <c r="H4" s="10">
+        <f t="shared" si="3"/>
+        <v>0.63702938357974104</v>
+      </c>
+      <c r="I4" s="13">
+        <f t="shared" si="4"/>
+        <v>1.1904541613466318E-4</v>
+      </c>
+      <c r="J4" s="15">
+        <f t="shared" si="5"/>
+        <v>33.619133496923943</v>
+      </c>
+      <c r="K4" s="13">
+        <f t="shared" ref="K4:K13" si="11">H4*J4*$B$33</f>
+        <v>1.2262058688745545E-4</v>
+      </c>
+      <c r="L4" s="20">
+        <f t="shared" si="6"/>
+        <v>0.97084363365448856</v>
+      </c>
+      <c r="M4" s="14">
+        <f t="shared" si="7"/>
+        <v>32.638921724468972</v>
+      </c>
+      <c r="N4" s="2">
+        <f t="shared" si="8"/>
+        <v>1.2163064594616619E-5</v>
+      </c>
+      <c r="O4" s="18">
+        <f t="shared" si="9"/>
+        <v>4615.4709175293483</v>
+      </c>
+      <c r="P4" s="17">
+        <f t="shared" si="10"/>
+        <v>6.9291002778376451E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="6">
         <v>11</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="7">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="7">
+        <f t="shared" si="0"/>
+        <v>440.00000000000006</v>
+      </c>
+      <c r="E5" s="8">
         <v>31.9</v>
       </c>
+      <c r="F5" s="8">
+        <f t="shared" si="1"/>
+        <v>304.89999999999998</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" si="2"/>
+        <v>101040</v>
+      </c>
+      <c r="H5" s="10">
+        <f t="shared" si="3"/>
+        <v>0.6377432573712043</v>
+      </c>
+      <c r="I5" s="13">
+        <f t="shared" si="4"/>
+        <v>1.309499577481295E-4</v>
+      </c>
+      <c r="J5" s="15">
+        <f t="shared" si="5"/>
+        <v>37.146542604585257</v>
+      </c>
+      <c r="K5" s="13">
+        <f t="shared" si="11"/>
+        <v>1.3563809562199678E-4</v>
+      </c>
+      <c r="L5" s="20">
+        <f t="shared" si="6"/>
+        <v>0.96543642217646275</v>
+      </c>
+      <c r="M5" s="14">
+        <f t="shared" si="7"/>
+        <v>35.862625188396336</v>
+      </c>
+      <c r="N5" s="2">
+        <f t="shared" si="8"/>
+        <v>1.2157083249911228E-5</v>
+      </c>
+      <c r="O5" s="18">
+        <f t="shared" si="9"/>
+        <v>5079.515927094043</v>
+      </c>
+      <c r="P5" s="17">
+        <f t="shared" si="10"/>
+        <v>7.6147268368520205E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="6">
         <v>12</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="7">
         <v>5.5</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="7">
+        <f t="shared" si="0"/>
+        <v>550</v>
+      </c>
+      <c r="E6" s="8">
         <v>31.8</v>
       </c>
+      <c r="F6" s="8">
+        <f t="shared" si="1"/>
+        <v>304.8</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="2"/>
+        <v>101150</v>
+      </c>
+      <c r="H6" s="10">
+        <f t="shared" si="3"/>
+        <v>0.63864701540645163</v>
+      </c>
+      <c r="I6" s="13">
+        <f t="shared" si="4"/>
+        <v>1.4285449936159584E-4</v>
+      </c>
+      <c r="J6" s="15">
+        <f t="shared" si="5"/>
+        <v>41.501701184244929</v>
+      </c>
+      <c r="K6" s="13">
+        <f t="shared" si="11"/>
+        <v>1.5175541465936476E-4</v>
+      </c>
+      <c r="L6" s="20">
+        <f t="shared" si="6"/>
+        <v>0.94134696730427569</v>
+      </c>
+      <c r="M6" s="14">
+        <f t="shared" si="7"/>
+        <v>39.067500547757234</v>
+      </c>
+      <c r="N6" s="2">
+        <f t="shared" si="8"/>
+        <v>1.2151102885995343E-5</v>
+      </c>
+      <c r="O6" s="18">
+        <f t="shared" si="9"/>
+        <v>5544.0173387901077</v>
+      </c>
+      <c r="P6" s="17">
+        <f t="shared" si="10"/>
+        <v>8.2965800714862425E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="6">
         <v>14</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="7">
         <v>7.8</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="7">
+        <f t="shared" si="0"/>
+        <v>780</v>
+      </c>
+      <c r="E7" s="8">
         <v>31.7</v>
       </c>
+      <c r="F7" s="8">
+        <f t="shared" si="1"/>
+        <v>304.7</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="2"/>
+        <v>101380</v>
+      </c>
+      <c r="H7" s="10">
+        <f t="shared" si="3"/>
+        <v>0.64030927860282727</v>
+      </c>
+      <c r="I7" s="13">
+        <f t="shared" si="4"/>
+        <v>1.6666358258852847E-4</v>
+      </c>
+      <c r="J7" s="15">
+        <f t="shared" si="5"/>
+        <v>49.359119242516094</v>
+      </c>
+      <c r="K7" s="13">
+        <f>H7*J7*$B$33</f>
+        <v>1.809566744806818E-4</v>
+      </c>
+      <c r="L7" s="20">
+        <f t="shared" si="6"/>
+        <v>0.92101373473417136</v>
+      </c>
+      <c r="M7" s="14">
+        <f t="shared" si="7"/>
+        <v>45.460426756739054</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" si="8"/>
+        <v>1.2145123503029834E-5</v>
+      </c>
+      <c r="O7" s="18">
+        <f t="shared" si="9"/>
+        <v>6471.2046153067777</v>
+      </c>
+      <c r="P7" s="17">
+        <f t="shared" si="10"/>
+        <v>9.6557996207875474E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="6">
         <v>15</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="7">
         <v>9.5</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="7">
+        <f t="shared" si="0"/>
+        <v>950</v>
+      </c>
+      <c r="E8" s="8">
         <v>31.7</v>
       </c>
+      <c r="F8" s="8">
+        <f t="shared" si="1"/>
+        <v>304.7</v>
+      </c>
+      <c r="G8" s="7">
+        <f t="shared" si="2"/>
+        <v>101550</v>
+      </c>
+      <c r="H8" s="10">
+        <f t="shared" si="3"/>
+        <v>0.64138298719784093</v>
+      </c>
+      <c r="I8" s="13">
+        <f t="shared" si="4"/>
+        <v>1.7856812420199479E-4</v>
+      </c>
+      <c r="J8" s="15">
+        <f t="shared" si="5"/>
+        <v>54.427461901686875</v>
+      </c>
+      <c r="K8" s="13">
+        <f t="shared" si="11"/>
+        <v>1.9987244639237708E-4</v>
+      </c>
+      <c r="L8" s="16">
+        <f t="shared" si="6"/>
+        <v>0.89341040961414475</v>
+      </c>
+      <c r="M8" s="14">
+        <f t="shared" si="7"/>
+        <v>48.626061031844323</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" si="8"/>
+        <v>1.2145123503029834E-5</v>
+      </c>
+      <c r="O8" s="18">
+        <f t="shared" si="9"/>
+        <v>6933.4335164001186</v>
+      </c>
+      <c r="P8" s="17">
+        <f t="shared" si="10"/>
+        <v>0.10328180687438716</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="6">
         <v>16</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="7">
         <v>11.3</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="7">
+        <f t="shared" si="0"/>
+        <v>1130</v>
+      </c>
+      <c r="E9" s="8">
         <v>31.6</v>
       </c>
+      <c r="F9" s="8">
+        <f t="shared" si="1"/>
+        <v>304.60000000000002</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="2"/>
+        <v>101730</v>
+      </c>
+      <c r="H9" s="10">
+        <f t="shared" si="3"/>
+        <v>0.64273079401071931</v>
+      </c>
+      <c r="I9" s="13">
+        <f t="shared" si="4"/>
+        <v>1.904726658154611E-4</v>
+      </c>
+      <c r="J9" s="15">
+        <f t="shared" si="5"/>
+        <v>59.297948092575496</v>
+      </c>
+      <c r="K9" s="13">
+        <f t="shared" si="11"/>
+        <v>2.1821579527569633E-4</v>
+      </c>
+      <c r="L9" s="16">
+        <f t="shared" si="6"/>
+        <v>0.87286378868594627</v>
+      </c>
+      <c r="M9" s="14">
+        <f t="shared" si="7"/>
+        <v>51.759031633388027</v>
+      </c>
+      <c r="N9" s="2">
+        <f t="shared" si="8"/>
+        <v>1.2139145101175663E-5</v>
+      </c>
+      <c r="O9" s="18">
+        <f t="shared" si="9"/>
+        <v>7399.3047037945998</v>
+      </c>
+      <c r="P9" s="17">
+        <f t="shared" si="10"/>
+        <v>0.10995428438290004</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="6">
         <v>17</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="7">
         <v>12.8</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="7">
+        <f t="shared" si="0"/>
+        <v>1280</v>
+      </c>
+      <c r="E10" s="8">
         <v>31.6</v>
       </c>
+      <c r="F10" s="8">
+        <f t="shared" si="1"/>
+        <v>304.60000000000002</v>
+      </c>
+      <c r="G10" s="7">
+        <f t="shared" si="2"/>
+        <v>101880</v>
+      </c>
+      <c r="H10" s="10">
+        <f t="shared" si="3"/>
+        <v>0.64367849497505247</v>
+      </c>
+      <c r="I10" s="13">
+        <f t="shared" si="4"/>
+        <v>2.0237720742892742E-4</v>
+      </c>
+      <c r="J10" s="15">
+        <f t="shared" si="5"/>
+        <v>63.064576372872835</v>
+      </c>
+      <c r="K10" s="13">
+        <f t="shared" si="11"/>
+        <v>2.3241914126126461E-4</v>
+      </c>
+      <c r="L10" s="16">
+        <f t="shared" si="6"/>
+        <v>0.87074242822983861</v>
+      </c>
+      <c r="M10" s="14">
+        <f t="shared" si="7"/>
+        <v>54.913002366201404</v>
+      </c>
+      <c r="N10" s="2">
+        <f t="shared" si="8"/>
+        <v>1.2139145101175663E-5</v>
+      </c>
+      <c r="O10" s="18">
+        <f t="shared" si="9"/>
+        <v>7861.761247781762</v>
+      </c>
+      <c r="P10" s="17">
+        <f t="shared" si="10"/>
+        <v>0.11665442122756624</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="6">
         <v>18</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="7">
         <v>14.2</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="7">
+        <f t="shared" si="0"/>
+        <v>1420</v>
+      </c>
+      <c r="E11" s="8">
         <v>31.5</v>
       </c>
+      <c r="F11" s="8">
+        <f t="shared" si="1"/>
+        <v>304.5</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="2"/>
+        <v>102020</v>
+      </c>
+      <c r="H11" s="10">
+        <f t="shared" si="3"/>
+        <v>0.64477469502645146</v>
+      </c>
+      <c r="I11" s="13">
+        <f t="shared" si="4"/>
+        <v>2.1428174904239373E-4</v>
+      </c>
+      <c r="J11" s="15">
+        <f t="shared" si="5"/>
+        <v>66.367457085000822</v>
+      </c>
+      <c r="K11" s="13">
+        <f t="shared" si="11"/>
+        <v>2.4500817313053769E-4</v>
+      </c>
+      <c r="L11" s="16">
+        <f t="shared" si="6"/>
+        <v>0.87459020776513752</v>
+      </c>
+      <c r="M11" s="14">
+        <f t="shared" si="7"/>
+        <v>58.044328080814715</v>
+      </c>
+      <c r="N11" s="2">
+        <f t="shared" si="8"/>
+        <v>1.2133167680593859E-5</v>
+      </c>
+      <c r="O11" s="18">
+        <f t="shared" si="9"/>
+        <v>8328.3187283145817</v>
+      </c>
+      <c r="P11" s="17">
+        <f t="shared" si="10"/>
+        <v>0.12332669783695889</v>
+      </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="6">
         <v>19</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="7">
         <v>15.9</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="7">
+        <f t="shared" si="0"/>
+        <v>1590</v>
+      </c>
+      <c r="E12" s="8">
         <v>31.5</v>
       </c>
+      <c r="F12" s="8">
+        <f t="shared" si="1"/>
+        <v>304.5</v>
+      </c>
+      <c r="G12" s="7">
+        <f t="shared" si="2"/>
+        <v>102190</v>
+      </c>
+      <c r="H12" s="10">
+        <f t="shared" si="3"/>
+        <v>0.64584910884878532</v>
+      </c>
+      <c r="I12" s="13">
+        <f t="shared" si="4"/>
+        <v>2.2618629065586005E-4</v>
+      </c>
+      <c r="J12" s="15">
+        <f t="shared" si="5"/>
+        <v>70.169442759869838</v>
+      </c>
+      <c r="K12" s="13">
+        <f t="shared" si="11"/>
+        <v>2.5947558634347779E-4</v>
+      </c>
+      <c r="L12" s="16">
+        <f t="shared" si="6"/>
+        <v>0.87170548043949148</v>
+      </c>
+      <c r="M12" s="14">
+        <f t="shared" si="7"/>
+        <v>61.167087813163732</v>
+      </c>
+      <c r="N12" s="2">
+        <f t="shared" si="8"/>
+        <v>1.2133167680593859E-5</v>
+      </c>
+      <c r="O12" s="18">
+        <f t="shared" si="9"/>
+        <v>8791.0031021098366</v>
+      </c>
+      <c r="P12" s="17">
+        <f t="shared" si="10"/>
+        <v>0.12996162081156254</v>
+      </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="6">
         <v>20</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="7">
         <v>17.5</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="7">
+        <f t="shared" si="0"/>
+        <v>1750</v>
+      </c>
+      <c r="E13" s="8">
         <v>31.5</v>
       </c>
+      <c r="F13" s="8">
+        <f t="shared" si="1"/>
+        <v>304.5</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="2"/>
+        <v>102350</v>
+      </c>
+      <c r="H13" s="10">
+        <f t="shared" si="3"/>
+        <v>0.64686032185804065</v>
+      </c>
+      <c r="I13" s="13">
+        <f t="shared" si="4"/>
+        <v>2.3809083226932637E-4</v>
+      </c>
+      <c r="J13" s="15">
+        <f t="shared" si="5"/>
+        <v>73.557805798192831</v>
+      </c>
+      <c r="K13" s="13">
+        <f t="shared" si="11"/>
+        <v>2.7243110260880324E-4</v>
+      </c>
+      <c r="L13" s="16">
+        <f t="shared" si="6"/>
+        <v>0.87394878921446906</v>
+      </c>
+      <c r="M13" s="14">
+        <f t="shared" si="7"/>
+        <v>64.285755314603676</v>
+      </c>
+      <c r="N13" s="2">
+        <f t="shared" si="8"/>
+        <v>1.2133167680593859E-5</v>
+      </c>
+      <c r="O13" s="18">
+        <f t="shared" si="9"/>
+        <v>9253.6874759050916</v>
+      </c>
+      <c r="P13" s="17">
+        <f t="shared" si="10"/>
+        <v>0.13658784902921942</v>
+      </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="3">
         <f>B31</f>
         <v>519.625</v>
       </c>
@@ -620,8 +5985,9 @@
         <f>C31</f>
         <v>J/kg/K</v>
       </c>
+      <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -632,12 +5998,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -648,7 +6014,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -659,11 +6025,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="5">
         <f>B21/(B17*B22)</f>
         <v>0.71427249680797911</v>
       </c>
@@ -671,12 +6037,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24">
+        <f>1/60000</f>
+        <v>1.6666666666666667E-5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -687,7 +6062,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -698,7 +6073,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -708,6 +6083,292 @@
       </c>
       <c r="C31" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33">
+        <f>PI()/4*B34^2</f>
+        <v>5.7255526111673983E-6</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="P34">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P35">
+        <v>2</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P36">
+        <v>3</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>44</v>
+      </c>
+      <c r="S36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>32</v>
+      </c>
+      <c r="P37">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P38">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39">
+        <f>0.0000103</f>
+        <v>1.03E-5</v>
+      </c>
+      <c r="P39">
+        <v>6</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40">
+        <v>273</v>
+      </c>
+      <c r="P40">
+        <v>7</v>
+      </c>
+      <c r="Q40" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P41">
+        <v>8</v>
+      </c>
+      <c r="Q41" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44">
+        <v>1.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15BD4D4F-4F23-4A27-A855-EB8CA54405C3}">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>Foglio1!A1</f>
+        <v>MIS</v>
+      </c>
+      <c r="B2" t="str">
+        <f>Foglio1!B1</f>
+        <v>q_MN [Nl/min]</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>Foglio1!A2</f>
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f>Foglio1!B2</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>Foglio1!A3</f>
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <f>Foglio1!B3</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>Foglio1!A4</f>
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <f>Foglio1!B4</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>Foglio1!A5</f>
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <f>Foglio1!B5</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>Foglio1!A6</f>
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <f>Foglio1!B6</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>Foglio1!A7</f>
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <f>Foglio1!B7</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>Foglio1!A8</f>
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <f>Foglio1!B8</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f>Foglio1!A9</f>
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <f>Foglio1!B9</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>Foglio1!A10</f>
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <f>Foglio1!B10</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>Foglio1!A11</f>
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <f>Foglio1!B11</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>Foglio1!A12</f>
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <f>Foglio1!B12</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f>Foglio1!A13</f>
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <f>Foglio1!B13</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16">
+        <f>AVERAGE(B3:B14)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="4">
+        <f>_xlfn.STDEV.S(B3:B14)</f>
+        <v>4.1995670772549447</v>
       </c>
     </row>
   </sheetData>

--- a/sperimentazione nei propulsori/misureCD.xlsx
+++ b/sperimentazione nei propulsori/misureCD.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repositoriesgithub\sperimentazione-propulsori\sperimentazione nei propulsori\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\github\sperimentazione-propulsori\sperimentazione nei propulsori\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501BC683-954F-41BB-AFF5-4AC5AEB211B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527C9238-86A5-4DFA-86BC-8DA8C1BDB069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -204,11 +204,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
-    <numFmt numFmtId="166" formatCode="0.00000E+00"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="174" formatCode="0.0"/>
-    <numFmt numFmtId="175" formatCode="0.0E+00"/>
-    <numFmt numFmtId="176" formatCode="0E+00"/>
+    <numFmt numFmtId="165" formatCode="0.00000E+00"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="0.0E+00"/>
+    <numFmt numFmtId="169" formatCode="0E+00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -281,31 +281,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="174" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -323,7 +322,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -756,7 +755,7 @@
             <c:numRef>
               <c:f>Foglio1!$E$2:$E$13</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>32.1</c:v>
@@ -1135,7 +1134,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1647,7 +1646,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2129,7 +2128,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2140,62 +2139,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>CD-T </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -2243,7 +2187,7 @@
             <c:numRef>
               <c:f>Foglio1!$E$2:$E$13</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>32.1</c:v>
@@ -2368,7 +2312,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1400"/>
+                  <a:t>T [°C]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2430,6 +2429,79 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>C</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="-25000">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>D</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2468,6 +2540,940 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="348958592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CD </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio1!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio1!$L$2:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.8266382213624279</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2369879596942546</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97084363365448856</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96543642217646275</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94134696730427569</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92101373473417136</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.89341040961414475</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.87286378868594627</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.87074242822983861</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.87459020776513752</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.87170548043949148</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.87394878921446906</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8403-48F5-B416-7C6E508E42C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="70956768"/>
+        <c:axId val="1225428960"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="70956768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1400"/>
+                  <a:t>q</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1400" baseline="-25000"/>
+                  <a:t>MN</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1400" baseline="0"/>
+                  <a:t> [Nl/min]</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT" sz="1400" baseline="-25000"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1225428960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1225428960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1400"/>
+                  <a:t>C</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1400" baseline="-25000"/>
+                  <a:t>D</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="70956768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CD </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio1!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio1!$L$2:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.8266382213624279</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2369879596942546</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97084363365448856</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96543642217646275</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94134696730427569</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92101373473417136</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.89341040961414475</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.87286378868594627</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.87074242822983861</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.87459020776513752</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.87170548043949148</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.87394878921446906</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-58D2-45AF-8E6C-6E6A5198472B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="70956768"/>
+        <c:axId val="1225428960"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="70956768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1400" baseline="0">
+                    <a:latin typeface="+mn-lt"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Δ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1400" baseline="0">
+                    <a:latin typeface="+mn-lt"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>p [mbar]</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT" sz="1400" baseline="0">
+                  <a:latin typeface="+mn-lt"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1225428960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1225428960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1400"/>
+                  <a:t>C</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1400" baseline="-25000"/>
+                  <a:t>D</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="70956768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2683,6 +3689,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4232,6 +5318,1038 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4893,6 +7011,80 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BC30F1A-25D4-21D6-C260-7C9872861B65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B125E1CC-E50D-44DD-9FAD-0B5B2642D807}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5161,8 +7353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X5" sqref="X5"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="U59" sqref="U59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5183,40 +7375,40 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="10" t="s">
         <v>31</v>
       </c>
       <c r="N1" t="s">
@@ -5233,48 +7425,48 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>7</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>0.5</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <f>C2*100</f>
         <v>50</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="19">
         <v>32.1</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="19">
         <f>E2+B$22</f>
         <v>305.10000000000002</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <f>$B$18+D2</f>
         <v>100650</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="9">
         <f>G2/($B$17*F2)</f>
         <v>0.63486521768851811</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="12">
         <f>B2*$B$23*B$24</f>
         <v>8.3331791294264236E-5</v>
       </c>
-      <c r="J2" s="15">
+      <c r="J2" s="14">
         <f>SQRT(2*D2/H2)</f>
         <v>12.550448124951906</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="12">
         <f>H2*J2*$B$33</f>
         <v>4.5620304184870204E-5</v>
       </c>
-      <c r="L2" s="20">
+      <c r="L2" s="18">
         <f>I2/K2</f>
         <v>1.8266382213624279</v>
       </c>
-      <c r="M2" s="14">
+      <c r="M2" s="13">
         <f>I2/(H2*B$33)</f>
         <v>22.925128240263568</v>
       </c>
@@ -5282,11 +7474,11 @@
         <f>B$39*(F2/B$40)^1.5</f>
         <v>1.2169046919950711E-5</v>
       </c>
-      <c r="O2" s="18">
+      <c r="O2" s="17">
         <f>H2*M2*B$34/N2</f>
         <v>3229.2413606124801</v>
       </c>
-      <c r="P2" s="17">
+      <c r="P2" s="16">
         <f>M2/(SQRT(B$44*B$17*F2))</f>
         <v>4.8661067646172014E-2</v>
       </c>
@@ -5295,48 +7487,48 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>9</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>1.8</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <f t="shared" ref="D3:D13" si="0">C3*100</f>
         <v>180</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="19">
         <v>32.1</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="19">
         <f t="shared" ref="F3:F13" si="1">E3+B$22</f>
         <v>305.10000000000002</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <f t="shared" ref="G3:G13" si="2">$B$18+D3</f>
         <v>100780</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="9">
         <f t="shared" ref="H3:H13" si="3">G3/($B$17*F3)</f>
         <v>0.63568521250520471</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="12">
         <f t="shared" ref="I3:I13" si="4">B3*$B$23*B$24</f>
         <v>1.0714087452119687E-4</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="14">
         <f t="shared" ref="J3:J13" si="5">SQRT(2*D3/H3)</f>
         <v>23.797437558111355</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="12">
         <f>H3*J3*$B$33</f>
         <v>8.6614322865097892E-5</v>
       </c>
-      <c r="L3" s="20">
+      <c r="L3" s="18">
         <f t="shared" ref="L3:L13" si="6">I3/K3</f>
         <v>1.2369879596942546</v>
       </c>
-      <c r="M3" s="14">
+      <c r="M3" s="13">
         <f t="shared" ref="M3:M13" si="7">I3/(H3*B$33)</f>
         <v>29.43714373095959</v>
       </c>
@@ -5344,11 +7536,11 @@
         <f t="shared" ref="N3:N13" si="8">B$39*(F3/B$40)^1.5</f>
         <v>1.2169046919950711E-5</v>
       </c>
-      <c r="O3" s="18">
+      <c r="O3" s="17">
         <f t="shared" ref="O3:O13" si="9">H3*M3*B$34/N3</f>
         <v>4151.8817493589022</v>
       </c>
-      <c r="P3" s="17">
+      <c r="P3" s="16">
         <f t="shared" ref="P3:P13" si="10">M3/(SQRT(B$44*B$17*F3))</f>
         <v>6.248352582327122E-2</v>
       </c>
@@ -5357,48 +7549,48 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>10</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>3.6</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="19">
         <v>32</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="19">
         <f t="shared" si="1"/>
         <v>305</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <f t="shared" si="2"/>
         <v>100960</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="9">
         <f t="shared" si="3"/>
         <v>0.63702938357974104</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="12">
         <f t="shared" si="4"/>
         <v>1.1904541613466318E-4</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="14">
         <f t="shared" si="5"/>
         <v>33.619133496923943</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="12">
         <f t="shared" ref="K4:K13" si="11">H4*J4*$B$33</f>
         <v>1.2262058688745545E-4</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4" s="18">
         <f t="shared" si="6"/>
         <v>0.97084363365448856</v>
       </c>
-      <c r="M4" s="14">
+      <c r="M4" s="13">
         <f t="shared" si="7"/>
         <v>32.638921724468972</v>
       </c>
@@ -5406,11 +7598,11 @@
         <f t="shared" si="8"/>
         <v>1.2163064594616619E-5</v>
       </c>
-      <c r="O4" s="18">
+      <c r="O4" s="17">
         <f t="shared" si="9"/>
         <v>4615.4709175293483</v>
       </c>
-      <c r="P4" s="17">
+      <c r="P4" s="16">
         <f t="shared" si="10"/>
         <v>6.9291002778376451E-2</v>
       </c>
@@ -5419,48 +7611,48 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>11</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <f t="shared" si="0"/>
         <v>440.00000000000006</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="19">
         <v>31.9</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="19">
         <f t="shared" si="1"/>
         <v>304.89999999999998</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <f t="shared" si="2"/>
         <v>101040</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="9">
         <f t="shared" si="3"/>
         <v>0.6377432573712043</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="12">
         <f t="shared" si="4"/>
         <v>1.309499577481295E-4</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="14">
         <f t="shared" si="5"/>
         <v>37.146542604585257</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="12">
         <f t="shared" si="11"/>
         <v>1.3563809562199678E-4</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5" s="18">
         <f t="shared" si="6"/>
         <v>0.96543642217646275</v>
       </c>
-      <c r="M5" s="14">
+      <c r="M5" s="13">
         <f t="shared" si="7"/>
         <v>35.862625188396336</v>
       </c>
@@ -5468,11 +7660,11 @@
         <f t="shared" si="8"/>
         <v>1.2157083249911228E-5</v>
       </c>
-      <c r="O5" s="18">
+      <c r="O5" s="17">
         <f t="shared" si="9"/>
         <v>5079.515927094043</v>
       </c>
-      <c r="P5" s="17">
+      <c r="P5" s="16">
         <f t="shared" si="10"/>
         <v>7.6147268368520205E-2</v>
       </c>
@@ -5481,48 +7673,48 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>12</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>5.5</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <f t="shared" si="0"/>
         <v>550</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="19">
         <v>31.8</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="19">
         <f t="shared" si="1"/>
         <v>304.8</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <f t="shared" si="2"/>
         <v>101150</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="9">
         <f t="shared" si="3"/>
         <v>0.63864701540645163</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="12">
         <f t="shared" si="4"/>
         <v>1.4285449936159584E-4</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="14">
         <f t="shared" si="5"/>
         <v>41.501701184244929</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="12">
         <f t="shared" si="11"/>
         <v>1.5175541465936476E-4</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L6" s="18">
         <f t="shared" si="6"/>
         <v>0.94134696730427569</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M6" s="13">
         <f t="shared" si="7"/>
         <v>39.067500547757234</v>
       </c>
@@ -5530,11 +7722,11 @@
         <f t="shared" si="8"/>
         <v>1.2151102885995343E-5</v>
       </c>
-      <c r="O6" s="18">
+      <c r="O6" s="17">
         <f t="shared" si="9"/>
         <v>5544.0173387901077</v>
       </c>
-      <c r="P6" s="17">
+      <c r="P6" s="16">
         <f t="shared" si="10"/>
         <v>8.2965800714862425E-2</v>
       </c>
@@ -5543,48 +7735,48 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>14</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>7.8</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <f t="shared" si="0"/>
         <v>780</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="19">
         <v>31.7</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="19">
         <f t="shared" si="1"/>
         <v>304.7</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <f t="shared" si="2"/>
         <v>101380</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="9">
         <f t="shared" si="3"/>
         <v>0.64030927860282727</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="12">
         <f t="shared" si="4"/>
         <v>1.6666358258852847E-4</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="14">
         <f t="shared" si="5"/>
         <v>49.359119242516094</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="12">
         <f>H7*J7*$B$33</f>
         <v>1.809566744806818E-4</v>
       </c>
-      <c r="L7" s="20">
+      <c r="L7" s="18">
         <f t="shared" si="6"/>
         <v>0.92101373473417136</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M7" s="13">
         <f t="shared" si="7"/>
         <v>45.460426756739054</v>
       </c>
@@ -5592,11 +7784,11 @@
         <f t="shared" si="8"/>
         <v>1.2145123503029834E-5</v>
       </c>
-      <c r="O7" s="18">
+      <c r="O7" s="17">
         <f t="shared" si="9"/>
         <v>6471.2046153067777</v>
       </c>
-      <c r="P7" s="17">
+      <c r="P7" s="16">
         <f t="shared" si="10"/>
         <v>9.6557996207875474E-2</v>
       </c>
@@ -5605,48 +7797,48 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>15</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>9.5</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <f t="shared" si="0"/>
         <v>950</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="19">
         <v>31.7</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="19">
         <f t="shared" si="1"/>
         <v>304.7</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <f t="shared" si="2"/>
         <v>101550</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="9">
         <f t="shared" si="3"/>
         <v>0.64138298719784093</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="12">
         <f t="shared" si="4"/>
         <v>1.7856812420199479E-4</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="14">
         <f t="shared" si="5"/>
         <v>54.427461901686875</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="12">
         <f t="shared" si="11"/>
         <v>1.9987244639237708E-4</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8" s="15">
         <f t="shared" si="6"/>
         <v>0.89341040961414475</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M8" s="13">
         <f t="shared" si="7"/>
         <v>48.626061031844323</v>
       </c>
@@ -5654,11 +7846,11 @@
         <f t="shared" si="8"/>
         <v>1.2145123503029834E-5</v>
       </c>
-      <c r="O8" s="18">
+      <c r="O8" s="17">
         <f t="shared" si="9"/>
         <v>6933.4335164001186</v>
       </c>
-      <c r="P8" s="17">
+      <c r="P8" s="16">
         <f t="shared" si="10"/>
         <v>0.10328180687438716</v>
       </c>
@@ -5667,48 +7859,48 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>16</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>11.3</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <f t="shared" si="0"/>
         <v>1130</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="19">
         <v>31.6</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="19">
         <f t="shared" si="1"/>
         <v>304.60000000000002</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <f t="shared" si="2"/>
         <v>101730</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="9">
         <f t="shared" si="3"/>
         <v>0.64273079401071931</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="12">
         <f t="shared" si="4"/>
         <v>1.904726658154611E-4</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="14">
         <f t="shared" si="5"/>
         <v>59.297948092575496</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="12">
         <f t="shared" si="11"/>
         <v>2.1821579527569633E-4</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L9" s="15">
         <f t="shared" si="6"/>
         <v>0.87286378868594627</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="13">
         <f t="shared" si="7"/>
         <v>51.759031633388027</v>
       </c>
@@ -5716,11 +7908,11 @@
         <f t="shared" si="8"/>
         <v>1.2139145101175663E-5</v>
       </c>
-      <c r="O9" s="18">
+      <c r="O9" s="17">
         <f t="shared" si="9"/>
         <v>7399.3047037945998</v>
       </c>
-      <c r="P9" s="17">
+      <c r="P9" s="16">
         <f t="shared" si="10"/>
         <v>0.10995428438290004</v>
       </c>
@@ -5729,48 +7921,48 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>17</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>12.8</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <f t="shared" si="0"/>
         <v>1280</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="19">
         <v>31.6</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="19">
         <f t="shared" si="1"/>
         <v>304.60000000000002</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <f t="shared" si="2"/>
         <v>101880</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="9">
         <f t="shared" si="3"/>
         <v>0.64367849497505247</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="12">
         <f t="shared" si="4"/>
         <v>2.0237720742892742E-4</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="14">
         <f t="shared" si="5"/>
         <v>63.064576372872835</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="12">
         <f t="shared" si="11"/>
         <v>2.3241914126126461E-4</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L10" s="15">
         <f t="shared" si="6"/>
         <v>0.87074242822983861</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M10" s="13">
         <f t="shared" si="7"/>
         <v>54.913002366201404</v>
       </c>
@@ -5778,11 +7970,11 @@
         <f t="shared" si="8"/>
         <v>1.2139145101175663E-5</v>
       </c>
-      <c r="O10" s="18">
+      <c r="O10" s="17">
         <f t="shared" si="9"/>
         <v>7861.761247781762</v>
       </c>
-      <c r="P10" s="17">
+      <c r="P10" s="16">
         <f t="shared" si="10"/>
         <v>0.11665442122756624</v>
       </c>
@@ -5791,48 +7983,48 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>18</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>14.2</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <f t="shared" si="0"/>
         <v>1420</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="19">
         <v>31.5</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="19">
         <f t="shared" si="1"/>
         <v>304.5</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <f t="shared" si="2"/>
         <v>102020</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="9">
         <f t="shared" si="3"/>
         <v>0.64477469502645146</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="12">
         <f t="shared" si="4"/>
         <v>2.1428174904239373E-4</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="14">
         <f t="shared" si="5"/>
         <v>66.367457085000822</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="12">
         <f t="shared" si="11"/>
         <v>2.4500817313053769E-4</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="15">
         <f t="shared" si="6"/>
         <v>0.87459020776513752</v>
       </c>
-      <c r="M11" s="14">
+      <c r="M11" s="13">
         <f t="shared" si="7"/>
         <v>58.044328080814715</v>
       </c>
@@ -5840,11 +8032,11 @@
         <f t="shared" si="8"/>
         <v>1.2133167680593859E-5</v>
       </c>
-      <c r="O11" s="18">
+      <c r="O11" s="17">
         <f t="shared" si="9"/>
         <v>8328.3187283145817</v>
       </c>
-      <c r="P11" s="17">
+      <c r="P11" s="16">
         <f t="shared" si="10"/>
         <v>0.12332669783695889</v>
       </c>
@@ -5853,48 +8045,48 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>19</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>15.9</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <f t="shared" si="0"/>
         <v>1590</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="19">
         <v>31.5</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="19">
         <f t="shared" si="1"/>
         <v>304.5</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <f t="shared" si="2"/>
         <v>102190</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="9">
         <f t="shared" si="3"/>
         <v>0.64584910884878532</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="12">
         <f t="shared" si="4"/>
         <v>2.2618629065586005E-4</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="14">
         <f t="shared" si="5"/>
         <v>70.169442759869838</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="12">
         <f t="shared" si="11"/>
         <v>2.5947558634347779E-4</v>
       </c>
-      <c r="L12" s="16">
+      <c r="L12" s="15">
         <f t="shared" si="6"/>
         <v>0.87170548043949148</v>
       </c>
-      <c r="M12" s="14">
+      <c r="M12" s="13">
         <f t="shared" si="7"/>
         <v>61.167087813163732</v>
       </c>
@@ -5902,11 +8094,11 @@
         <f t="shared" si="8"/>
         <v>1.2133167680593859E-5</v>
       </c>
-      <c r="O12" s="18">
+      <c r="O12" s="17">
         <f t="shared" si="9"/>
         <v>8791.0031021098366</v>
       </c>
-      <c r="P12" s="17">
+      <c r="P12" s="16">
         <f t="shared" si="10"/>
         <v>0.12996162081156254</v>
       </c>
@@ -5915,48 +8107,48 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>20</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>17.5</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <f t="shared" si="0"/>
         <v>1750</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="19">
         <v>31.5</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="19">
         <f t="shared" si="1"/>
         <v>304.5</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <f t="shared" si="2"/>
         <v>102350</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="9">
         <f t="shared" si="3"/>
         <v>0.64686032185804065</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="12">
         <f t="shared" si="4"/>
         <v>2.3809083226932637E-4</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J13" s="14">
         <f t="shared" si="5"/>
         <v>73.557805798192831</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="12">
         <f t="shared" si="11"/>
         <v>2.7243110260880324E-4</v>
       </c>
-      <c r="L13" s="16">
+      <c r="L13" s="15">
         <f t="shared" si="6"/>
         <v>0.87394878921446906</v>
       </c>
-      <c r="M13" s="14">
+      <c r="M13" s="13">
         <f t="shared" si="7"/>
         <v>64.285755314603676</v>
       </c>
@@ -5964,11 +8156,11 @@
         <f t="shared" si="8"/>
         <v>1.2133167680593859E-5</v>
       </c>
-      <c r="O13" s="18">
+      <c r="O13" s="17">
         <f t="shared" si="9"/>
         <v>9253.6874759050916</v>
       </c>
-      <c r="P13" s="17">
+      <c r="P13" s="16">
         <f t="shared" si="10"/>
         <v>0.13658784902921942</v>
       </c>
@@ -6029,7 +8221,7 @@
       <c r="A23" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23">
         <f>B21/(B17*B22)</f>
         <v>0.71427249680797911</v>
       </c>
@@ -6174,7 +8366,7 @@
       <c r="P40">
         <v>7</v>
       </c>
-      <c r="Q40" s="19" t="s">
+      <c r="Q40" t="s">
         <v>48</v>
       </c>
     </row>
@@ -6182,7 +8374,7 @@
       <c r="P41">
         <v>8</v>
       </c>
-      <c r="Q41" s="19" t="s">
+      <c r="Q41" t="s">
         <v>49</v>
       </c>
     </row>

--- a/sperimentazione nei propulsori/misureCD.xlsx
+++ b/sperimentazione nei propulsori/misureCD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\github\sperimentazione-propulsori\sperimentazione nei propulsori\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527C9238-86A5-4DFA-86BC-8DA8C1BDB069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA894024-E102-438C-BFC0-F2542ED15FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1145,67 +1145,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>CD</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> - Re</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1385,7 +1325,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1398,7 +1338,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="it-IT"/>
+                  <a:rPr lang="it-IT" sz="1400"/>
                   <a:t>Re</a:t>
                 </a:r>
               </a:p>
@@ -1417,7 +1357,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1502,7 +1442,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1515,8 +1455,26 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="it-IT"/>
-                  <a:t>CD</a:t>
+                  <a:rPr lang="it-IT" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>C</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="-25000">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>D</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1534,7 +1492,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1657,37 +1615,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1867,7 +1795,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1880,7 +1808,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="it-IT"/>
+                  <a:rPr lang="it-IT" sz="1400"/>
                   <a:t>Ma</a:t>
                 </a:r>
               </a:p>
@@ -1899,7 +1827,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1984,7 +1912,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1997,8 +1925,26 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="it-IT"/>
-                  <a:t>CD</a:t>
+                  <a:rPr lang="it-IT" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>C</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="-25000">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>D</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2016,7 +1962,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -7353,8 +7299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="U59" sqref="U59"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/sperimentazione nei propulsori/misureCD.xlsx
+++ b/sperimentazione nei propulsori/misureCD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\github\sperimentazione-propulsori\sperimentazione nei propulsori\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repositoriesgithub\sperimentazione-propulsori\sperimentazione nei propulsori\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA894024-E102-438C-BFC0-F2542ED15FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231FDAF7-C474-4984-97F9-E25B8DD52611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>MIS</t>
   </si>
@@ -138,9 +138,6 @@
     <t>Input Sutherland</t>
   </si>
   <si>
-    <t>mu=mu_ref*(T/T_ref)^1.5</t>
-  </si>
-  <si>
     <t>T_Ref [K]</t>
   </si>
   <si>
@@ -197,18 +194,28 @@
   <si>
     <t>Dev std</t>
   </si>
+  <si>
+    <t>mu_100</t>
+  </si>
+  <si>
+    <t>mu=mu_ref*(T/T_ref)^1.5*(T0+S/T+S)</t>
+  </si>
+  <si>
+    <t>T [K]</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
     <numFmt numFmtId="165" formatCode="0.00000E+00"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="0.0E+00"/>
-    <numFmt numFmtId="169" formatCode="0E+00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -281,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -298,13 +305,14 @@
     <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -322,7 +330,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1134,7 +1142,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1193,43 +1201,43 @@
             <c:numRef>
               <c:f>Foglio1!$O$2:$O$13</c:f>
               <c:numCache>
-                <c:formatCode>0E+00</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>3229.2413606124801</c:v>
+                  <c:v>3437.2883476878528</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4151.8817493589022</c:v>
+                  <c:v>4419.3707327415241</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4615.4709175293483</c:v>
+                  <c:v>4911.9007367044487</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5079.515927094043</c:v>
+                  <c:v>5404.7296787619343</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5544.0173387901077</c:v>
+                  <c:v>5897.8578809720157</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6471.2046153067777</c:v>
+                  <c:v>6882.9230247679734</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6933.4335164001186</c:v>
+                  <c:v>7374.560383679971</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7399.3047037945998</c:v>
+                  <c:v>7868.5866930275961</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7861.761247781762</c:v>
+                  <c:v>8360.3733613418208</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8328.3187283145817</c:v>
+                  <c:v>8854.8495312621162</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8791.0031021098366</c:v>
+                  <c:v>9346.785616332234</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9253.6874759050916</c:v>
+                  <c:v>9838.7217014023536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1373,7 +1381,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1604,7 +1612,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1663,43 +1671,43 @@
             <c:numRef>
               <c:f>Foglio1!$P$2:$P$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0E+00</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>4.8661067646172014E-2</c:v>
+                  <c:v>5.049797639701447E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.248352582327122E-2</c:v>
+                  <c:v>6.4842219146706487E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.9291002778376451E-2</c:v>
+                  <c:v>7.1906671844327599E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.6147268368520205E-2</c:v>
+                  <c:v>7.9021754901285102E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.2965800714862425E-2</c:v>
+                  <c:v>8.6097680320586012E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.6557996207875474E-2</c:v>
+                  <c:v>0.10020296819015405</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.10328180687438716</c:v>
+                  <c:v>0.10718059627682862</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.10995428438290004</c:v>
+                  <c:v>0.11410495342789904</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.11665442122756624</c:v>
+                  <c:v>0.1210580140286016</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.12332669783695889</c:v>
+                  <c:v>0.12798216269680221</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.12996162081156254</c:v>
+                  <c:v>0.13486754766623582</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.13658784902921942</c:v>
+                  <c:v>0.14174390965996594</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1843,7 +1851,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2074,7 +2082,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2544,7 +2552,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3009,7 +3017,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6853,13 +6861,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6888,15 +6896,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6925,13 +6933,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6997,13 +7005,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7297,10 +7305,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S44"/>
+  <dimension ref="A1:S47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="K57" sqref="K57"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="M63" sqref="M63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7358,13 +7366,13 @@
         <v>31</v>
       </c>
       <c r="N1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" t="s">
         <v>36</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>37</v>
-      </c>
-      <c r="P1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -7381,10 +7389,10 @@
         <f>C2*100</f>
         <v>50</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="17">
         <v>32.1</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="17">
         <f>E2+B$22</f>
         <v>305.10000000000002</v>
       </c>
@@ -7408,7 +7416,7 @@
         <f>H2*J2*$B$33</f>
         <v>4.5620304184870204E-5</v>
       </c>
-      <c r="L2" s="18">
+      <c r="L2" s="16">
         <f>I2/K2</f>
         <v>1.8266382213624279</v>
       </c>
@@ -7417,16 +7425,16 @@
         <v>22.925128240263568</v>
       </c>
       <c r="N2" s="2">
-        <f>B$39*(F2/B$40)^1.5</f>
-        <v>1.2169046919950711E-5</v>
-      </c>
-      <c r="O2" s="17">
+        <f>B$39*(F2/B$40)^1.5*(B$40+B$43)/(B$43+F2)</f>
+        <v>1.143249726476173E-5</v>
+      </c>
+      <c r="O2" s="20">
         <f>H2*M2*B$34/N2</f>
-        <v>3229.2413606124801</v>
-      </c>
-      <c r="P2" s="16">
-        <f>M2/(SQRT(B$44*B$17*F2))</f>
-        <v>4.8661067646172014E-2</v>
+        <v>3437.2883476878528</v>
+      </c>
+      <c r="P2" s="18">
+        <f>M2/(SQRT(B$47*B$17*F2))</f>
+        <v>5.049797639701447E-2</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -7443,10 +7451,10 @@
         <f t="shared" ref="D3:D13" si="0">C3*100</f>
         <v>180</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="17">
         <v>32.1</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="17">
         <f t="shared" ref="F3:F13" si="1">E3+B$22</f>
         <v>305.10000000000002</v>
       </c>
@@ -7470,7 +7478,7 @@
         <f>H3*J3*$B$33</f>
         <v>8.6614322865097892E-5</v>
       </c>
-      <c r="L3" s="18">
+      <c r="L3" s="16">
         <f t="shared" ref="L3:L13" si="6">I3/K3</f>
         <v>1.2369879596942546</v>
       </c>
@@ -7479,16 +7487,16 @@
         <v>29.43714373095959</v>
       </c>
       <c r="N3" s="2">
-        <f t="shared" ref="N3:N13" si="8">B$39*(F3/B$40)^1.5</f>
-        <v>1.2169046919950711E-5</v>
-      </c>
-      <c r="O3" s="17">
+        <f t="shared" ref="N3:N13" si="8">B$39*(F3/B$40)^1.5*(B$40+B$43)/(B$43+F3)</f>
+        <v>1.143249726476173E-5</v>
+      </c>
+      <c r="O3" s="20">
         <f t="shared" ref="O3:O13" si="9">H3*M3*B$34/N3</f>
-        <v>4151.8817493589022</v>
-      </c>
-      <c r="P3" s="16">
-        <f t="shared" ref="P3:P13" si="10">M3/(SQRT(B$44*B$17*F3))</f>
-        <v>6.248352582327122E-2</v>
+        <v>4419.3707327415241</v>
+      </c>
+      <c r="P3" s="18">
+        <f t="shared" ref="P3:P13" si="10">M3/(SQRT(B$47*B$17*F3))</f>
+        <v>6.4842219146706487E-2</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -7505,10 +7513,10 @@
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="17">
         <v>32</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="17">
         <f t="shared" si="1"/>
         <v>305</v>
       </c>
@@ -7532,7 +7540,7 @@
         <f t="shared" ref="K4:K13" si="11">H4*J4*$B$33</f>
         <v>1.2262058688745545E-4</v>
       </c>
-      <c r="L4" s="18">
+      <c r="L4" s="16">
         <f t="shared" si="6"/>
         <v>0.97084363365448856</v>
       </c>
@@ -7542,15 +7550,15 @@
       </c>
       <c r="N4" s="2">
         <f t="shared" si="8"/>
-        <v>1.2163064594616619E-5</v>
-      </c>
-      <c r="O4" s="17">
+        <v>1.1429032041504336E-5</v>
+      </c>
+      <c r="O4" s="20">
         <f t="shared" si="9"/>
-        <v>4615.4709175293483</v>
-      </c>
-      <c r="P4" s="16">
+        <v>4911.9007367044487</v>
+      </c>
+      <c r="P4" s="18">
         <f t="shared" si="10"/>
-        <v>6.9291002778376451E-2</v>
+        <v>7.1906671844327599E-2</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -7567,10 +7575,10 @@
         <f t="shared" si="0"/>
         <v>440.00000000000006</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="17">
         <v>31.9</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="17">
         <f t="shared" si="1"/>
         <v>304.89999999999998</v>
       </c>
@@ -7594,7 +7602,7 @@
         <f t="shared" si="11"/>
         <v>1.3563809562199678E-4</v>
       </c>
-      <c r="L5" s="18">
+      <c r="L5" s="16">
         <f t="shared" si="6"/>
         <v>0.96543642217646275</v>
       </c>
@@ -7604,15 +7612,15 @@
       </c>
       <c r="N5" s="2">
         <f t="shared" si="8"/>
-        <v>1.2157083249911228E-5</v>
-      </c>
-      <c r="O5" s="17">
+        <v>1.1425566432598696E-5</v>
+      </c>
+      <c r="O5" s="20">
         <f t="shared" si="9"/>
-        <v>5079.515927094043</v>
-      </c>
-      <c r="P5" s="16">
+        <v>5404.7296787619343</v>
+      </c>
+      <c r="P5" s="18">
         <f t="shared" si="10"/>
-        <v>7.6147268368520205E-2</v>
+        <v>7.9021754901285102E-2</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -7629,10 +7637,10 @@
         <f t="shared" si="0"/>
         <v>550</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="17">
         <v>31.8</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="17">
         <f t="shared" si="1"/>
         <v>304.8</v>
       </c>
@@ -7656,7 +7664,7 @@
         <f t="shared" si="11"/>
         <v>1.5175541465936476E-4</v>
       </c>
-      <c r="L6" s="18">
+      <c r="L6" s="16">
         <f t="shared" si="6"/>
         <v>0.94134696730427569</v>
       </c>
@@ -7666,15 +7674,15 @@
       </c>
       <c r="N6" s="2">
         <f t="shared" si="8"/>
-        <v>1.2151102885995343E-5</v>
-      </c>
-      <c r="O6" s="17">
+        <v>1.1422100437977701E-5</v>
+      </c>
+      <c r="O6" s="20">
         <f t="shared" si="9"/>
-        <v>5544.0173387901077</v>
-      </c>
-      <c r="P6" s="16">
+        <v>5897.8578809720157</v>
+      </c>
+      <c r="P6" s="18">
         <f t="shared" si="10"/>
-        <v>8.2965800714862425E-2</v>
+        <v>8.6097680320586012E-2</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -7691,10 +7699,10 @@
         <f t="shared" si="0"/>
         <v>780</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="17">
         <v>31.7</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="17">
         <f t="shared" si="1"/>
         <v>304.7</v>
       </c>
@@ -7718,7 +7726,7 @@
         <f>H7*J7*$B$33</f>
         <v>1.809566744806818E-4</v>
       </c>
-      <c r="L7" s="18">
+      <c r="L7" s="16">
         <f t="shared" si="6"/>
         <v>0.92101373473417136</v>
       </c>
@@ -7728,15 +7736,15 @@
       </c>
       <c r="N7" s="2">
         <f t="shared" si="8"/>
-        <v>1.2145123503029834E-5</v>
-      </c>
-      <c r="O7" s="17">
+        <v>1.141863405757424E-5</v>
+      </c>
+      <c r="O7" s="20">
         <f t="shared" si="9"/>
-        <v>6471.2046153067777</v>
-      </c>
-      <c r="P7" s="16">
+        <v>6882.9230247679734</v>
+      </c>
+      <c r="P7" s="18">
         <f t="shared" si="10"/>
-        <v>9.6557996207875474E-2</v>
+        <v>0.10020296819015405</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -7753,10 +7761,10 @@
         <f t="shared" si="0"/>
         <v>950</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="17">
         <v>31.7</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="17">
         <f t="shared" si="1"/>
         <v>304.7</v>
       </c>
@@ -7790,15 +7798,15 @@
       </c>
       <c r="N8" s="2">
         <f t="shared" si="8"/>
-        <v>1.2145123503029834E-5</v>
-      </c>
-      <c r="O8" s="17">
+        <v>1.141863405757424E-5</v>
+      </c>
+      <c r="O8" s="20">
         <f t="shared" si="9"/>
-        <v>6933.4335164001186</v>
-      </c>
-      <c r="P8" s="16">
+        <v>7374.560383679971</v>
+      </c>
+      <c r="P8" s="18">
         <f t="shared" si="10"/>
-        <v>0.10328180687438716</v>
+        <v>0.10718059627682862</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -7815,10 +7823,10 @@
         <f t="shared" si="0"/>
         <v>1130</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="17">
         <v>31.6</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="17">
         <f t="shared" si="1"/>
         <v>304.60000000000002</v>
       </c>
@@ -7852,15 +7860,15 @@
       </c>
       <c r="N9" s="2">
         <f t="shared" si="8"/>
-        <v>1.2139145101175663E-5</v>
-      </c>
-      <c r="O9" s="17">
+        <v>1.141516729132125E-5</v>
+      </c>
+      <c r="O9" s="20">
         <f t="shared" si="9"/>
-        <v>7399.3047037945998</v>
-      </c>
-      <c r="P9" s="16">
+        <v>7868.5866930275961</v>
+      </c>
+      <c r="P9" s="18">
         <f t="shared" si="10"/>
-        <v>0.10995428438290004</v>
+        <v>0.11410495342789904</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -7877,10 +7885,10 @@
         <f t="shared" si="0"/>
         <v>1280</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="17">
         <v>31.6</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="17">
         <f t="shared" si="1"/>
         <v>304.60000000000002</v>
       </c>
@@ -7914,15 +7922,15 @@
       </c>
       <c r="N10" s="2">
         <f t="shared" si="8"/>
-        <v>1.2139145101175663E-5</v>
-      </c>
-      <c r="O10" s="17">
+        <v>1.141516729132125E-5</v>
+      </c>
+      <c r="O10" s="20">
         <f t="shared" si="9"/>
-        <v>7861.761247781762</v>
-      </c>
-      <c r="P10" s="16">
+        <v>8360.3733613418208</v>
+      </c>
+      <c r="P10" s="18">
         <f t="shared" si="10"/>
-        <v>0.11665442122756624</v>
+        <v>0.1210580140286016</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -7939,10 +7947,10 @@
         <f t="shared" si="0"/>
         <v>1420</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="17">
         <v>31.5</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="17">
         <f t="shared" si="1"/>
         <v>304.5</v>
       </c>
@@ -7976,15 +7984,15 @@
       </c>
       <c r="N11" s="2">
         <f t="shared" si="8"/>
-        <v>1.2133167680593859E-5</v>
-      </c>
-      <c r="O11" s="17">
+        <v>1.1411700139151673E-5</v>
+      </c>
+      <c r="O11" s="20">
         <f t="shared" si="9"/>
-        <v>8328.3187283145817</v>
-      </c>
-      <c r="P11" s="16">
+        <v>8854.8495312621162</v>
+      </c>
+      <c r="P11" s="18">
         <f t="shared" si="10"/>
-        <v>0.12332669783695889</v>
+        <v>0.12798216269680221</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -8001,10 +8009,10 @@
         <f t="shared" si="0"/>
         <v>1590</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="17">
         <v>31.5</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="17">
         <f t="shared" si="1"/>
         <v>304.5</v>
       </c>
@@ -8038,15 +8046,15 @@
       </c>
       <c r="N12" s="2">
         <f t="shared" si="8"/>
-        <v>1.2133167680593859E-5</v>
-      </c>
-      <c r="O12" s="17">
+        <v>1.1411700139151673E-5</v>
+      </c>
+      <c r="O12" s="20">
         <f t="shared" si="9"/>
-        <v>8791.0031021098366</v>
-      </c>
-      <c r="P12" s="16">
+        <v>9346.785616332234</v>
+      </c>
+      <c r="P12" s="18">
         <f t="shared" si="10"/>
-        <v>0.12996162081156254</v>
+        <v>0.13486754766623582</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -8063,10 +8071,10 @@
         <f t="shared" si="0"/>
         <v>1750</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="17">
         <v>31.5</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="17">
         <f t="shared" si="1"/>
         <v>304.5</v>
       </c>
@@ -8100,15 +8108,15 @@
       </c>
       <c r="N13" s="2">
         <f t="shared" si="8"/>
-        <v>1.2133167680593859E-5</v>
-      </c>
-      <c r="O13" s="17">
+        <v>1.1411700139151673E-5</v>
+      </c>
+      <c r="O13" s="20">
         <f t="shared" si="9"/>
-        <v>9253.6874759050916</v>
-      </c>
-      <c r="P13" s="16">
+        <v>9838.7217014023536</v>
+      </c>
+      <c r="P13" s="18">
         <f t="shared" si="10"/>
-        <v>0.13658784902921942</v>
+        <v>0.14174390965996594</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -8232,7 +8240,7 @@
         <v>5.7255526111673983E-6</v>
       </c>
       <c r="Q33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
@@ -8246,7 +8254,7 @@
         <v>1</v>
       </c>
       <c r="Q34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
@@ -8254,7 +8262,7 @@
         <v>2</v>
       </c>
       <c r="Q35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
@@ -8262,10 +8270,10 @@
         <v>3</v>
       </c>
       <c r="Q36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
@@ -8276,7 +8284,7 @@
         <v>4</v>
       </c>
       <c r="Q37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
@@ -8284,12 +8292,12 @@
         <v>5</v>
       </c>
       <c r="Q38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B39">
         <f>0.0000103</f>
@@ -8299,12 +8307,12 @@
         <v>6</v>
       </c>
       <c r="Q39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B40">
         <v>273</v>
@@ -8313,28 +8321,54 @@
         <v>7</v>
       </c>
       <c r="Q40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="P41">
-        <v>8</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>49</v>
+      <c r="A41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41">
+        <f>0.0000137</f>
+        <v>1.3699999999999999E-5</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>33</v>
+        <v>54</v>
+      </c>
+      <c r="B42">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="19">
+        <f>(B39*(B42/B40)^1.5*B40-B42*B41)/(B41-B39*(B42/B40)^1.5)</f>
+        <v>225.24632950875912</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>39</v>
-      </c>
-      <c r="B44">
-        <v>1.4</v>
+      <c r="P44">
+        <v>8</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>
@@ -8358,7 +8392,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -8493,7 +8527,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16">
         <f>AVERAGE(B3:B14)</f>
@@ -8502,7 +8536,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="4">
         <f>_xlfn.STDEV.S(B3:B14)</f>

--- a/sperimentazione nei propulsori/misureCD.xlsx
+++ b/sperimentazione nei propulsori/misureCD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repositoriesgithub\sperimentazione-propulsori\sperimentazione nei propulsori\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231FDAF7-C474-4984-97F9-E25B8DD52611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF8FA7C-4C86-463D-A4F5-6571E498BBA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
   <si>
     <t>MIS</t>
   </si>
@@ -205,6 +205,33 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>cd_medio</t>
+  </si>
+  <si>
+    <t>molte misure</t>
+  </si>
+  <si>
+    <t>devstd</t>
+  </si>
+  <si>
+    <t>t95</t>
+  </si>
+  <si>
+    <t>per 9</t>
+  </si>
+  <si>
+    <t>err stat</t>
+  </si>
+  <si>
+    <t>poche misure</t>
+  </si>
+  <si>
+    <t>per 4</t>
+  </si>
+  <si>
+    <t>devstdmean</t>
   </si>
 </sst>
 </file>
@@ -6896,15 +6923,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7305,10 +7332,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S47"/>
+  <dimension ref="A1:V47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="M63" sqref="M63"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8119,7 +8146,7 @@
         <v>0.14174390965996594</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -8132,8 +8159,14 @@
         <v>J/kg/K</v>
       </c>
       <c r="D17" s="1"/>
+      <c r="R17" t="s">
+        <v>57</v>
+      </c>
+      <c r="T17">
+        <v>10</v>
+      </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -8143,13 +8176,45 @@
       <c r="C18" t="s">
         <v>8</v>
       </c>
+      <c r="R18" t="s">
+        <v>56</v>
+      </c>
+      <c r="S18" s="4">
+        <f>AVERAGE(L4:L13)</f>
+        <v>0.9055901861818425</v>
+      </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R19" t="s">
+        <v>58</v>
+      </c>
+      <c r="S19">
+        <f>_xlfn.STDEV.S(L4:L13)</f>
+        <v>4.0688652318799721E-2</v>
+      </c>
+      <c r="U19" t="s">
+        <v>64</v>
+      </c>
+      <c r="V19">
+        <f>S19/SQRT(T17)</f>
+        <v>1.2866881625009867E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
+      <c r="R20" t="s">
+        <v>59</v>
+      </c>
+      <c r="S20">
+        <v>2.262</v>
+      </c>
+      <c r="T20" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -8159,8 +8224,15 @@
       <c r="C21" t="s">
         <v>8</v>
       </c>
+      <c r="R21" t="s">
+        <v>61</v>
+      </c>
+      <c r="S21">
+        <f>S20*V19</f>
+        <v>2.9104886235772318E-2</v>
+      </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -8171,7 +8243,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -8182,8 +8254,14 @@
       <c r="C23" t="s">
         <v>19</v>
       </c>
+      <c r="R23" t="s">
+        <v>62</v>
+      </c>
+      <c r="T23">
+        <v>5</v>
+      </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -8191,13 +8269,56 @@
         <f>1/60000</f>
         <v>1.6666666666666667E-5</v>
       </c>
+      <c r="R24" t="s">
+        <v>56</v>
+      </c>
+      <c r="S24" s="4">
+        <f>AVERAGE(L9:L13)</f>
+        <v>0.87277013886697663</v>
+      </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R25" t="s">
+        <v>58</v>
+      </c>
+      <c r="S25">
+        <f>_xlfn.STDEV.S(L9:L13)</f>
+        <v>1.5776363427187133E-3</v>
+      </c>
+      <c r="U25" t="s">
+        <v>64</v>
+      </c>
+      <c r="V25">
+        <f>S25/SQRT(T23)</f>
+        <v>7.0554042121863966E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R26" t="s">
+        <v>59</v>
+      </c>
+      <c r="S26">
+        <v>2.7759999999999998</v>
+      </c>
+      <c r="T26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R27" t="s">
+        <v>61</v>
+      </c>
+      <c r="S27">
+        <f>S26*V25</f>
+        <v>1.9585802093029436E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -8208,7 +8329,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -8219,7 +8340,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>17</v>
       </c>
